--- a/Shablon/MSO-X 3104T.xlsx
+++ b/Shablon/MSO-X 3104T.xlsx
@@ -19,24 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="201">
   <si>
     <t>Заключение:_______________________________________________________________________</t>
-  </si>
-  <si>
-    <t>125424, г. Москва, Волоколамское шоссе, дом 90, стр. 23</t>
-  </si>
-  <si>
-    <t>СГМетр, лаборатория средств электрорадиотехнических измерений</t>
-  </si>
-  <si>
-    <t>Аттестат аккредитации № РОСС СОБ 3.00231.2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АО "Гос МКБ "Вымпел" им. И.И. Торопова </t>
-  </si>
-  <si>
-    <t>Тел. +7 (495) 491-05-31, 22-68, e-mail ogmetr@vympelmkb.com</t>
   </si>
   <si>
     <t>Параметр</t>
@@ -736,11 +721,14 @@
       <t>Fluke 9500В №276568182, Ч3-85/3R №903120485</t>
     </r>
   </si>
+  <si>
+    <t>TITLE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1135,98 +1123,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1241,15 +1146,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1259,7 +1179,75 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1568,7 +1556,7 @@
   <dimension ref="A1:J143"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+      <selection activeCell="A5" sqref="A5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1581,74 +1569,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="75" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
+      <c r="A1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="75" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
+      <c r="A3" s="61" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="75" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
     </row>
     <row r="6" spans="1:10" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
@@ -1662,29 +1642,29 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="75"/>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="75" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
+      <c r="A8" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="33"/>
@@ -1699,17 +1679,17 @@
       <c r="J9" s="33"/>
     </row>
     <row r="10" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="83" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
+      <c r="A10" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
       <c r="D10" s="35" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E10" s="36"/>
       <c r="F10" s="37" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G10" s="40"/>
       <c r="H10" s="36"/>
@@ -1717,13 +1697,13 @@
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="83" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
+      <c r="A11" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
       <c r="D11" s="42" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E11" s="36"/>
       <c r="F11" s="36"/>
@@ -1733,11 +1713,11 @@
       <c r="J11" s="38"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="83" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="83"/>
-      <c r="C12" s="83"/>
+      <c r="A12" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="35"/>
       <c r="E12" s="36"/>
       <c r="F12" s="36"/>
@@ -1747,13 +1727,13 @@
       <c r="J12" s="38"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="83" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="83"/>
-      <c r="C13" s="83"/>
+      <c r="A13" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
       <c r="D13" s="39" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E13" s="36"/>
       <c r="F13" s="36"/>
@@ -1763,13 +1743,13 @@
       <c r="J13" s="38"/>
     </row>
     <row r="14" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="83" t="s">
-        <v>110</v>
-      </c>
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
+      <c r="A14" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
       <c r="D14" s="42" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E14" s="36"/>
       <c r="F14" s="36"/>
@@ -1779,13 +1759,13 @@
       <c r="J14" s="38"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="83" t="s">
-        <v>112</v>
-      </c>
-      <c r="B15" s="83"/>
-      <c r="C15" s="83"/>
+      <c r="A15" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
       <c r="D15" s="35" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="36"/>
@@ -1795,13 +1775,13 @@
       <c r="J15" s="38"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="83" t="s">
-        <v>113</v>
-      </c>
-      <c r="B16" s="83"/>
-      <c r="C16" s="83"/>
+      <c r="A16" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
       <c r="D16" s="35" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="36"/>
@@ -1835,12 +1815,12 @@
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="87" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="87"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
+      <c r="A19" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
     </row>
     <row r="20" spans="1:10" s="2" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="18"/>
@@ -1849,96 +1829,96 @@
       <c r="D20" s="18"/>
     </row>
     <row r="21" spans="1:10" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="88" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="88"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="58"/>
+      <c r="A21" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="64"/>
     </row>
     <row r="22" spans="1:10" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B22" s="31"/>
       <c r="C22" s="31"/>
       <c r="D22" s="32"/>
-      <c r="E22" s="89" t="s">
-        <v>117</v>
-      </c>
-      <c r="F22" s="80"/>
-      <c r="G22" s="81" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22" s="81"/>
+      <c r="E22" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="66"/>
+      <c r="G22" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="67"/>
     </row>
     <row r="23" spans="1:10" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="91"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="80" t="s">
-        <v>118</v>
-      </c>
-      <c r="F23" s="80"/>
-      <c r="G23" s="81" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="81"/>
+      <c r="A23" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23" s="66"/>
+      <c r="G23" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="67"/>
     </row>
     <row r="24" spans="1:10" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="80" t="s">
-        <v>119</v>
-      </c>
-      <c r="F24" s="80"/>
-      <c r="G24" s="81" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="81"/>
+      <c r="A24" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" s="66"/>
+      <c r="G24" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="67"/>
     </row>
     <row r="25" spans="1:10" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="77" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="78"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="81"/>
+      <c r="A25" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="67"/>
     </row>
     <row r="26" spans="1:10" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="77" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="78"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="81" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" s="81"/>
+      <c r="A26" s="71" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="67"/>
     </row>
     <row r="27" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
@@ -1953,8 +1933,8 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="93" t="s">
-        <v>204</v>
+      <c r="A28" s="52" t="s">
+        <v>199</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1992,7 +1972,7 @@
     </row>
     <row r="31" spans="1:10" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B31" s="15"/>
       <c r="C31" s="6"/>
@@ -2006,7 +1986,7 @@
     </row>
     <row r="32" spans="1:10" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
@@ -2031,17 +2011,17 @@
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="82" t="s">
-        <v>95</v>
-      </c>
-      <c r="B34" s="82"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="82"/>
-      <c r="H34" s="82"/>
-      <c r="I34" s="82"/>
+      <c r="A34" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="81"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="81"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="81"/>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" s="20" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2058,7 +2038,7 @@
     </row>
     <row r="36" spans="1:10" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -2072,7 +2052,7 @@
     </row>
     <row r="37" spans="1:10" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -2098,7 +2078,7 @@
     </row>
     <row r="39" spans="1:10" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -2123,294 +2103,294 @@
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="66" t="s">
-        <v>101</v>
-      </c>
-      <c r="B41" s="67"/>
-      <c r="C41" s="66" t="s">
-        <v>102</v>
-      </c>
-      <c r="D41" s="67"/>
+      <c r="A41" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="78"/>
+      <c r="C41" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" s="78"/>
       <c r="E41" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="64"/>
+      <c r="H41" s="79" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41" s="79"/>
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="53"/>
+      <c r="E42" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="F42" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="G42" s="53"/>
+      <c r="H42" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="I42" s="54"/>
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="53"/>
+      <c r="C43" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="55"/>
+      <c r="E43" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="F43" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="G43" s="53"/>
+      <c r="H43" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="I43" s="54"/>
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="F41" s="58" t="s">
+      <c r="B44" s="53"/>
+      <c r="C44" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="53"/>
+      <c r="E44" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="F44" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="G44" s="53"/>
+      <c r="H44" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="I44" s="53"/>
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="G41" s="58"/>
-      <c r="H41" s="74" t="s">
+      <c r="B45" s="53"/>
+      <c r="C45" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="53"/>
+      <c r="E45" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="F45" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="G45" s="53"/>
+      <c r="H45" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="I45" s="53"/>
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="I41" s="74"/>
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="56" t="s">
+      <c r="B46" s="53"/>
+      <c r="C46" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" s="55"/>
+      <c r="E46" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="F46" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="G46" s="53"/>
+      <c r="H46" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="I46" s="53"/>
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="B42" s="56"/>
-      <c r="C42" s="56" t="s">
+      <c r="B47" s="53"/>
+      <c r="C47" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="56"/>
-      <c r="E42" s="48" t="s">
+      <c r="D47" s="53"/>
+      <c r="E47" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="F42" s="56" t="s">
+      <c r="F47" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="G42" s="56"/>
-      <c r="H42" s="68" t="s">
+      <c r="G47" s="53"/>
+      <c r="H47" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="I42" s="68"/>
-      <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="56" t="s">
+      <c r="I47" s="53"/>
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="56"/>
-      <c r="C43" s="64" t="s">
+      <c r="B48" s="53"/>
+      <c r="C48" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="64"/>
-      <c r="E43" s="48" t="s">
+      <c r="D48" s="53"/>
+      <c r="E48" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="F43" s="56" t="s">
+      <c r="F48" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="G43" s="56"/>
-      <c r="H43" s="68" t="s">
+      <c r="G48" s="53"/>
+      <c r="H48" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="I43" s="68"/>
-      <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="56" t="s">
+      <c r="I48" s="53"/>
+      <c r="J48" s="2"/>
+    </row>
+    <row r="49" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="B44" s="56"/>
-      <c r="C44" s="56" t="s">
+      <c r="B49" s="53"/>
+      <c r="C49" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="56"/>
-      <c r="E44" s="48" t="s">
+      <c r="D49" s="53"/>
+      <c r="E49" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="F44" s="56" t="s">
+      <c r="F49" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="G44" s="56"/>
-      <c r="H44" s="56" t="s">
+      <c r="G49" s="53"/>
+      <c r="H49" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="I44" s="56"/>
-      <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="56" t="s">
+      <c r="I49" s="53"/>
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B45" s="56"/>
-      <c r="C45" s="56" t="s">
+      <c r="B50" s="53"/>
+      <c r="C50" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="56"/>
-      <c r="E45" s="48" t="s">
+      <c r="D50" s="53"/>
+      <c r="E50" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="F45" s="56" t="s">
+      <c r="F50" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="G45" s="56"/>
-      <c r="H45" s="56" t="s">
+      <c r="G50" s="53"/>
+      <c r="H50" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="I45" s="56"/>
-      <c r="J45" s="2"/>
-    </row>
-    <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="56" t="s">
+      <c r="I50" s="54"/>
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="56"/>
-      <c r="C46" s="64" t="s">
+      <c r="B51" s="53"/>
+      <c r="C51" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="64"/>
-      <c r="E46" s="48" t="s">
+      <c r="D51" s="53"/>
+      <c r="E51" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="F46" s="56" t="s">
+      <c r="F51" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="G46" s="56"/>
-      <c r="H46" s="56" t="s">
+      <c r="G51" s="55"/>
+      <c r="H51" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I46" s="56"/>
-      <c r="J46" s="2"/>
-    </row>
-    <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="56" t="s">
+      <c r="I51" s="55"/>
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="56"/>
-      <c r="C47" s="56" t="s">
+      <c r="B52" s="53"/>
+      <c r="C52" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="56"/>
-      <c r="E47" s="48" t="s">
+      <c r="D52" s="53"/>
+      <c r="E52" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="F47" s="56" t="s">
+      <c r="F52" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="G47" s="56"/>
-      <c r="H47" s="56" t="s">
+      <c r="G52" s="53"/>
+      <c r="H52" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="I47" s="56"/>
-      <c r="J47" s="2"/>
-    </row>
-    <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="B48" s="56"/>
-      <c r="C48" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="D48" s="56"/>
-      <c r="E48" s="48" t="s">
+      <c r="I52" s="54"/>
+      <c r="J52" s="2"/>
+    </row>
+    <row r="53" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="B53" s="53"/>
+      <c r="C53" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="D53" s="53"/>
+      <c r="E53" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="F48" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="G48" s="56"/>
-      <c r="H48" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="I48" s="56"/>
-      <c r="J48" s="2"/>
-    </row>
-    <row r="49" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="B49" s="56"/>
-      <c r="C49" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="D49" s="56"/>
-      <c r="E49" s="48" t="s">
-        <v>133</v>
-      </c>
-      <c r="F49" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="G49" s="56"/>
-      <c r="H49" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="I49" s="56"/>
-      <c r="J49" s="2"/>
-    </row>
-    <row r="50" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="B50" s="56"/>
-      <c r="C50" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="D50" s="56"/>
-      <c r="E50" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="F50" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="G50" s="56"/>
-      <c r="H50" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="I50" s="68"/>
-      <c r="J50" s="2"/>
-    </row>
-    <row r="51" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="B51" s="56"/>
-      <c r="C51" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="D51" s="56"/>
-      <c r="E51" s="48" t="s">
-        <v>135</v>
-      </c>
-      <c r="F51" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="G51" s="64"/>
-      <c r="H51" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="I51" s="64"/>
-      <c r="J51" s="2"/>
-    </row>
-    <row r="52" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="B52" s="56"/>
-      <c r="C52" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="D52" s="56"/>
-      <c r="E52" s="50" t="s">
-        <v>136</v>
-      </c>
-      <c r="F52" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="G52" s="56"/>
-      <c r="H52" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="I52" s="68"/>
-      <c r="J52" s="2"/>
-    </row>
-    <row r="53" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="56" t="s">
-        <v>171</v>
-      </c>
-      <c r="B53" s="56"/>
-      <c r="C53" s="56" t="s">
-        <v>172</v>
-      </c>
-      <c r="D53" s="56"/>
-      <c r="E53" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="F53" s="56" t="s">
-        <v>173</v>
-      </c>
-      <c r="G53" s="56"/>
-      <c r="H53" s="68" t="s">
-        <v>174</v>
-      </c>
-      <c r="I53" s="68"/>
+      <c r="F53" s="53" t="s">
+        <v>168</v>
+      </c>
+      <c r="G53" s="53"/>
+      <c r="H53" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="I53" s="54"/>
       <c r="J53" s="2"/>
     </row>
     <row r="54" spans="1:10" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -2435,294 +2415,294 @@
       <c r="J55" s="2"/>
     </row>
     <row r="56" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="66" t="s">
-        <v>101</v>
-      </c>
-      <c r="B56" s="67"/>
-      <c r="C56" s="66" t="s">
-        <v>102</v>
-      </c>
-      <c r="D56" s="67"/>
+      <c r="A56" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="B56" s="78"/>
+      <c r="C56" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="D56" s="78"/>
       <c r="E56" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" s="64"/>
+      <c r="H56" s="79" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56" s="79"/>
+      <c r="J56" s="2"/>
+    </row>
+    <row r="57" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" s="53"/>
+      <c r="E57" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="F57" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="G57" s="53"/>
+      <c r="H57" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="I57" s="54"/>
+      <c r="J57" s="2"/>
+    </row>
+    <row r="58" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" s="53"/>
+      <c r="C58" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="D58" s="55"/>
+      <c r="E58" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="F58" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="G58" s="53"/>
+      <c r="H58" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="I58" s="54"/>
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="F56" s="58" t="s">
+      <c r="B59" s="53"/>
+      <c r="C59" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59" s="53"/>
+      <c r="E59" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="F59" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="G59" s="53"/>
+      <c r="H59" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="I59" s="53"/>
+      <c r="J59" s="2"/>
+    </row>
+    <row r="60" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="G56" s="58"/>
-      <c r="H56" s="74" t="s">
+      <c r="B60" s="53"/>
+      <c r="C60" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" s="53"/>
+      <c r="E60" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="F60" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="G60" s="53"/>
+      <c r="H60" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="I60" s="53"/>
+      <c r="J60" s="2"/>
+    </row>
+    <row r="61" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="I56" s="74"/>
-      <c r="J56" s="2"/>
-    </row>
-    <row r="57" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="56" t="s">
+      <c r="B61" s="53"/>
+      <c r="C61" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D61" s="55"/>
+      <c r="E61" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="F61" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="G61" s="53"/>
+      <c r="H61" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="I61" s="53"/>
+      <c r="J61" s="2"/>
+    </row>
+    <row r="62" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="B57" s="56"/>
-      <c r="C57" s="56" t="s">
+      <c r="B62" s="53"/>
+      <c r="C62" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="D57" s="56"/>
-      <c r="E57" s="48" t="s">
+      <c r="D62" s="53"/>
+      <c r="E62" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="F57" s="56" t="s">
+      <c r="F62" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="G57" s="56"/>
-      <c r="H57" s="68" t="s">
+      <c r="G62" s="53"/>
+      <c r="H62" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="I57" s="68"/>
-      <c r="J57" s="2"/>
-    </row>
-    <row r="58" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="56" t="s">
+      <c r="I62" s="53"/>
+      <c r="J62" s="2"/>
+    </row>
+    <row r="63" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B58" s="56"/>
-      <c r="C58" s="64" t="s">
+      <c r="B63" s="53"/>
+      <c r="C63" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D58" s="64"/>
-      <c r="E58" s="50" t="s">
+      <c r="D63" s="53"/>
+      <c r="E63" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="F58" s="56" t="s">
+      <c r="F63" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="G58" s="56"/>
-      <c r="H58" s="68" t="s">
+      <c r="G63" s="53"/>
+      <c r="H63" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="I58" s="68"/>
-      <c r="J58" s="2"/>
-    </row>
-    <row r="59" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="56" t="s">
+      <c r="I63" s="53"/>
+      <c r="J63" s="2"/>
+    </row>
+    <row r="64" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="B59" s="56"/>
-      <c r="C59" s="56" t="s">
+      <c r="B64" s="53"/>
+      <c r="C64" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="D59" s="56"/>
-      <c r="E59" s="50" t="s">
+      <c r="D64" s="53"/>
+      <c r="E64" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="F59" s="56" t="s">
+      <c r="F64" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="G59" s="56"/>
-      <c r="H59" s="56" t="s">
+      <c r="G64" s="53"/>
+      <c r="H64" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="I59" s="56"/>
-      <c r="J59" s="2"/>
-    </row>
-    <row r="60" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="56" t="s">
+      <c r="I64" s="53"/>
+      <c r="J64" s="2"/>
+    </row>
+    <row r="65" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B60" s="56"/>
-      <c r="C60" s="56" t="s">
+      <c r="B65" s="53"/>
+      <c r="C65" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="D60" s="56"/>
-      <c r="E60" s="50" t="s">
+      <c r="D65" s="53"/>
+      <c r="E65" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="F60" s="56" t="s">
+      <c r="F65" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="G60" s="56"/>
-      <c r="H60" s="56" t="s">
+      <c r="G65" s="53"/>
+      <c r="H65" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="I60" s="56"/>
-      <c r="J60" s="2"/>
-    </row>
-    <row r="61" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="56" t="s">
+      <c r="I65" s="54"/>
+      <c r="J65" s="2"/>
+    </row>
+    <row r="66" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B61" s="56"/>
-      <c r="C61" s="64" t="s">
+      <c r="B66" s="53"/>
+      <c r="C66" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="D61" s="64"/>
-      <c r="E61" s="50" t="s">
+      <c r="D66" s="53"/>
+      <c r="E66" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="F61" s="56" t="s">
+      <c r="F66" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="G61" s="56"/>
-      <c r="H61" s="56" t="s">
+      <c r="G66" s="55"/>
+      <c r="H66" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I61" s="56"/>
-      <c r="J61" s="2"/>
-    </row>
-    <row r="62" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="56" t="s">
+      <c r="I66" s="55"/>
+      <c r="J66" s="2"/>
+    </row>
+    <row r="67" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="B62" s="56"/>
-      <c r="C62" s="56" t="s">
+      <c r="B67" s="53"/>
+      <c r="C67" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="D62" s="56"/>
-      <c r="E62" s="50" t="s">
+      <c r="D67" s="53"/>
+      <c r="E67" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="F62" s="56" t="s">
+      <c r="F67" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="G62" s="56"/>
-      <c r="H62" s="56" t="s">
+      <c r="G67" s="53"/>
+      <c r="H67" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="I62" s="56"/>
-      <c r="J62" s="2"/>
-    </row>
-    <row r="63" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="B63" s="56"/>
-      <c r="C63" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="D63" s="56"/>
-      <c r="E63" s="50" t="s">
+      <c r="I67" s="54"/>
+      <c r="J67" s="2"/>
+    </row>
+    <row r="68" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="B68" s="53"/>
+      <c r="C68" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="D68" s="53"/>
+      <c r="E68" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="F63" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="G63" s="56"/>
-      <c r="H63" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="I63" s="56"/>
-      <c r="J63" s="2"/>
-    </row>
-    <row r="64" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="B64" s="56"/>
-      <c r="C64" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="D64" s="56"/>
-      <c r="E64" s="50" t="s">
-        <v>145</v>
-      </c>
-      <c r="F64" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="G64" s="56"/>
-      <c r="H64" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="I64" s="56"/>
-      <c r="J64" s="2"/>
-    </row>
-    <row r="65" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="B65" s="56"/>
-      <c r="C65" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="D65" s="56"/>
-      <c r="E65" s="50" t="s">
-        <v>146</v>
-      </c>
-      <c r="F65" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="G65" s="56"/>
-      <c r="H65" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="I65" s="68"/>
-      <c r="J65" s="2"/>
-    </row>
-    <row r="66" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="B66" s="56"/>
-      <c r="C66" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="D66" s="56"/>
-      <c r="E66" s="50" t="s">
-        <v>147</v>
-      </c>
-      <c r="F66" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="G66" s="64"/>
-      <c r="H66" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="I66" s="64"/>
-      <c r="J66" s="2"/>
-    </row>
-    <row r="67" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="B67" s="56"/>
-      <c r="C67" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="D67" s="56"/>
-      <c r="E67" s="50" t="s">
-        <v>148</v>
-      </c>
-      <c r="F67" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="G67" s="56"/>
-      <c r="H67" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="I67" s="68"/>
-      <c r="J67" s="2"/>
-    </row>
-    <row r="68" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="56" t="s">
-        <v>171</v>
-      </c>
-      <c r="B68" s="56"/>
-      <c r="C68" s="56" t="s">
-        <v>172</v>
-      </c>
-      <c r="D68" s="56"/>
-      <c r="E68" s="50" t="s">
-        <v>149</v>
-      </c>
-      <c r="F68" s="56" t="s">
-        <v>173</v>
-      </c>
-      <c r="G68" s="56"/>
-      <c r="H68" s="68" t="s">
-        <v>174</v>
-      </c>
-      <c r="I68" s="68"/>
+      <c r="F68" s="53" t="s">
+        <v>168</v>
+      </c>
+      <c r="G68" s="53"/>
+      <c r="H68" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="I68" s="54"/>
       <c r="J68" s="2"/>
     </row>
     <row r="69" spans="1:10" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -2747,294 +2727,294 @@
       <c r="J70" s="2"/>
     </row>
     <row r="71" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="66" t="s">
-        <v>101</v>
-      </c>
-      <c r="B71" s="67"/>
-      <c r="C71" s="66" t="s">
-        <v>102</v>
-      </c>
-      <c r="D71" s="67"/>
+      <c r="A71" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="B71" s="78"/>
+      <c r="C71" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="D71" s="78"/>
       <c r="E71" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F71" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="G71" s="64"/>
+      <c r="H71" s="79" t="s">
+        <v>18</v>
+      </c>
+      <c r="I71" s="79"/>
+      <c r="J71" s="2"/>
+    </row>
+    <row r="72" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="B72" s="53"/>
+      <c r="C72" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D72" s="53"/>
+      <c r="E72" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="F72" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="G72" s="53"/>
+      <c r="H72" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="I72" s="54"/>
+      <c r="J72" s="2"/>
+    </row>
+    <row r="73" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B73" s="53"/>
+      <c r="C73" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="D73" s="55"/>
+      <c r="E73" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="F73" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="G73" s="53"/>
+      <c r="H73" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="I73" s="54"/>
+      <c r="J73" s="2"/>
+    </row>
+    <row r="74" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="F71" s="58" t="s">
+      <c r="B74" s="53"/>
+      <c r="C74" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="D74" s="53"/>
+      <c r="E74" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="F74" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="G74" s="53"/>
+      <c r="H74" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="I74" s="53"/>
+      <c r="J74" s="2"/>
+    </row>
+    <row r="75" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="G71" s="58"/>
-      <c r="H71" s="74" t="s">
+      <c r="B75" s="53"/>
+      <c r="C75" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="D75" s="53"/>
+      <c r="E75" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="G75" s="53"/>
+      <c r="H75" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="I75" s="53"/>
+      <c r="J75" s="2"/>
+    </row>
+    <row r="76" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="I71" s="74"/>
-      <c r="J71" s="2"/>
-    </row>
-    <row r="72" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="56" t="s">
+      <c r="B76" s="53"/>
+      <c r="C76" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D76" s="55"/>
+      <c r="E76" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="F76" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="G76" s="53"/>
+      <c r="H76" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="I76" s="53"/>
+      <c r="J76" s="2"/>
+    </row>
+    <row r="77" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="B72" s="56"/>
-      <c r="C72" s="56" t="s">
+      <c r="B77" s="53"/>
+      <c r="C77" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="D72" s="56"/>
-      <c r="E72" s="48" t="s">
+      <c r="D77" s="53"/>
+      <c r="E77" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="F72" s="56" t="s">
+      <c r="F77" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="G72" s="56"/>
-      <c r="H72" s="68" t="s">
+      <c r="G77" s="53"/>
+      <c r="H77" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="I72" s="68"/>
-      <c r="J72" s="2"/>
-    </row>
-    <row r="73" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="56" t="s">
+      <c r="I77" s="53"/>
+      <c r="J77" s="2"/>
+    </row>
+    <row r="78" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B73" s="56"/>
-      <c r="C73" s="64" t="s">
+      <c r="B78" s="53"/>
+      <c r="C78" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D73" s="64"/>
-      <c r="E73" s="50" t="s">
+      <c r="D78" s="53"/>
+      <c r="E78" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="F73" s="56" t="s">
+      <c r="F78" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="G73" s="56"/>
-      <c r="H73" s="68" t="s">
+      <c r="G78" s="53"/>
+      <c r="H78" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="I73" s="68"/>
-      <c r="J73" s="2"/>
-    </row>
-    <row r="74" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="56" t="s">
+      <c r="I78" s="53"/>
+      <c r="J78" s="2"/>
+    </row>
+    <row r="79" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="B74" s="56"/>
-      <c r="C74" s="56" t="s">
+      <c r="B79" s="53"/>
+      <c r="C79" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="D74" s="56"/>
-      <c r="E74" s="50" t="s">
+      <c r="D79" s="53"/>
+      <c r="E79" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="F74" s="56" t="s">
+      <c r="F79" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="G74" s="56"/>
-      <c r="H74" s="56" t="s">
+      <c r="G79" s="53"/>
+      <c r="H79" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="I74" s="56"/>
-      <c r="J74" s="2"/>
-    </row>
-    <row r="75" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="56" t="s">
+      <c r="I79" s="53"/>
+      <c r="J79" s="2"/>
+    </row>
+    <row r="80" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B75" s="56"/>
-      <c r="C75" s="56" t="s">
+      <c r="B80" s="53"/>
+      <c r="C80" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="D75" s="56"/>
-      <c r="E75" s="50" t="s">
+      <c r="D80" s="53"/>
+      <c r="E80" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="F75" s="56" t="s">
+      <c r="F80" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="G75" s="56"/>
-      <c r="H75" s="56" t="s">
+      <c r="G80" s="53"/>
+      <c r="H80" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="I75" s="56"/>
-      <c r="J75" s="2"/>
-    </row>
-    <row r="76" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="56" t="s">
+      <c r="I80" s="54"/>
+      <c r="J80" s="2"/>
+    </row>
+    <row r="81" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B76" s="56"/>
-      <c r="C76" s="64" t="s">
+      <c r="B81" s="53"/>
+      <c r="C81" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="D76" s="64"/>
-      <c r="E76" s="50" t="s">
+      <c r="D81" s="53"/>
+      <c r="E81" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="F76" s="56" t="s">
+      <c r="F81" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="G76" s="56"/>
-      <c r="H76" s="56" t="s">
+      <c r="G81" s="55"/>
+      <c r="H81" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I76" s="56"/>
-      <c r="J76" s="2"/>
-    </row>
-    <row r="77" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="56" t="s">
+      <c r="I81" s="55"/>
+      <c r="J81" s="2"/>
+    </row>
+    <row r="82" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="B77" s="56"/>
-      <c r="C77" s="56" t="s">
+      <c r="B82" s="53"/>
+      <c r="C82" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="D77" s="56"/>
-      <c r="E77" s="50" t="s">
+      <c r="D82" s="53"/>
+      <c r="E82" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="F77" s="56" t="s">
+      <c r="F82" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="G77" s="56"/>
-      <c r="H77" s="56" t="s">
+      <c r="G82" s="53"/>
+      <c r="H82" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="I77" s="56"/>
-      <c r="J77" s="2"/>
-    </row>
-    <row r="78" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="B78" s="56"/>
-      <c r="C78" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="D78" s="56"/>
-      <c r="E78" s="50" t="s">
+      <c r="I82" s="54"/>
+      <c r="J82" s="2"/>
+    </row>
+    <row r="83" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="B83" s="53"/>
+      <c r="C83" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="D83" s="53"/>
+      <c r="E83" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="F78" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="G78" s="56"/>
-      <c r="H78" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="I78" s="56"/>
-      <c r="J78" s="2"/>
-    </row>
-    <row r="79" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="B79" s="56"/>
-      <c r="C79" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="D79" s="56"/>
-      <c r="E79" s="50" t="s">
-        <v>157</v>
-      </c>
-      <c r="F79" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="G79" s="56"/>
-      <c r="H79" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="I79" s="56"/>
-      <c r="J79" s="2"/>
-    </row>
-    <row r="80" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="B80" s="56"/>
-      <c r="C80" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="D80" s="56"/>
-      <c r="E80" s="50" t="s">
-        <v>158</v>
-      </c>
-      <c r="F80" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="G80" s="56"/>
-      <c r="H80" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="I80" s="68"/>
-      <c r="J80" s="2"/>
-    </row>
-    <row r="81" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="B81" s="56"/>
-      <c r="C81" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="D81" s="56"/>
-      <c r="E81" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="F81" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="G81" s="64"/>
-      <c r="H81" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="I81" s="64"/>
-      <c r="J81" s="2"/>
-    </row>
-    <row r="82" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="B82" s="56"/>
-      <c r="C82" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="D82" s="56"/>
-      <c r="E82" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="F82" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="G82" s="56"/>
-      <c r="H82" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="I82" s="68"/>
-      <c r="J82" s="2"/>
-    </row>
-    <row r="83" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="56" t="s">
-        <v>171</v>
-      </c>
-      <c r="B83" s="56"/>
-      <c r="C83" s="56" t="s">
-        <v>172</v>
-      </c>
-      <c r="D83" s="56"/>
-      <c r="E83" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="F83" s="56" t="s">
-        <v>173</v>
-      </c>
-      <c r="G83" s="56"/>
-      <c r="H83" s="68" t="s">
-        <v>174</v>
-      </c>
-      <c r="I83" s="68"/>
+      <c r="F83" s="53" t="s">
+        <v>168</v>
+      </c>
+      <c r="G83" s="53"/>
+      <c r="H83" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="I83" s="54"/>
       <c r="J83" s="2"/>
     </row>
     <row r="84" spans="1:10" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -3059,289 +3039,289 @@
       <c r="J85" s="2"/>
     </row>
     <row r="86" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="66" t="s">
-        <v>101</v>
-      </c>
-      <c r="B86" s="67"/>
-      <c r="C86" s="66" t="s">
-        <v>102</v>
-      </c>
-      <c r="D86" s="67"/>
+      <c r="A86" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="B86" s="78"/>
+      <c r="C86" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="D86" s="78"/>
       <c r="E86" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F86" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="G86" s="64"/>
+      <c r="H86" s="79" t="s">
+        <v>18</v>
+      </c>
+      <c r="I86" s="79"/>
+      <c r="J86" s="2"/>
+    </row>
+    <row r="87" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="B87" s="53"/>
+      <c r="C87" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D87" s="53"/>
+      <c r="E87" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="F87" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="G87" s="53"/>
+      <c r="H87" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="I87" s="54"/>
+      <c r="J87" s="2"/>
+    </row>
+    <row r="88" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B88" s="53"/>
+      <c r="C88" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="D88" s="55"/>
+      <c r="E88" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="F88" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="G88" s="53"/>
+      <c r="H88" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="I88" s="54"/>
+      <c r="J88" s="2"/>
+    </row>
+    <row r="89" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="F86" s="58" t="s">
+      <c r="B89" s="53"/>
+      <c r="C89" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="D89" s="53"/>
+      <c r="E89" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="F89" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="G89" s="53"/>
+      <c r="H89" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="I89" s="53"/>
+      <c r="J89" s="2"/>
+    </row>
+    <row r="90" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="G86" s="58"/>
-      <c r="H86" s="74" t="s">
+      <c r="B90" s="53"/>
+      <c r="C90" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="D90" s="53"/>
+      <c r="E90" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="F90" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="G90" s="53"/>
+      <c r="H90" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="I90" s="53"/>
+      <c r="J90" s="2"/>
+    </row>
+    <row r="91" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="I86" s="74"/>
-      <c r="J86" s="2"/>
-    </row>
-    <row r="87" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="56" t="s">
+      <c r="B91" s="53"/>
+      <c r="C91" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D91" s="55"/>
+      <c r="E91" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="F91" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="G91" s="53"/>
+      <c r="H91" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="I91" s="53"/>
+      <c r="J91" s="2"/>
+    </row>
+    <row r="92" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="B87" s="56"/>
-      <c r="C87" s="56" t="s">
+      <c r="B92" s="53"/>
+      <c r="C92" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="D87" s="56"/>
-      <c r="E87" s="48" t="s">
+      <c r="D92" s="53"/>
+      <c r="E92" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="F87" s="56" t="s">
+      <c r="F92" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="G87" s="56"/>
-      <c r="H87" s="68" t="s">
+      <c r="G92" s="53"/>
+      <c r="H92" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="I87" s="68"/>
-      <c r="J87" s="2"/>
-    </row>
-    <row r="88" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="56" t="s">
+      <c r="I92" s="53"/>
+      <c r="J92" s="2"/>
+    </row>
+    <row r="93" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B88" s="56"/>
-      <c r="C88" s="64" t="s">
+      <c r="B93" s="53"/>
+      <c r="C93" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D88" s="64"/>
-      <c r="E88" s="50" t="s">
+      <c r="D93" s="53"/>
+      <c r="E93" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="F88" s="56" t="s">
+      <c r="F93" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="G88" s="56"/>
-      <c r="H88" s="68" t="s">
+      <c r="G93" s="53"/>
+      <c r="H93" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="I88" s="68"/>
-      <c r="J88" s="2"/>
-    </row>
-    <row r="89" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="56" t="s">
+      <c r="I93" s="53"/>
+      <c r="J93" s="2"/>
+    </row>
+    <row r="94" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="B89" s="56"/>
-      <c r="C89" s="56" t="s">
+      <c r="B94" s="53"/>
+      <c r="C94" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="D89" s="56"/>
-      <c r="E89" s="50" t="s">
-        <v>164</v>
-      </c>
-      <c r="F89" s="56" t="s">
+      <c r="D94" s="53"/>
+      <c r="E94" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="F94" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="G89" s="56"/>
-      <c r="H89" s="56" t="s">
+      <c r="G94" s="53"/>
+      <c r="H94" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="I89" s="56"/>
-      <c r="J89" s="2"/>
-    </row>
-    <row r="90" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="56" t="s">
+      <c r="I94" s="53"/>
+      <c r="J94" s="2"/>
+    </row>
+    <row r="95" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B90" s="56"/>
-      <c r="C90" s="56" t="s">
+      <c r="B95" s="53"/>
+      <c r="C95" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="D90" s="56"/>
-      <c r="E90" s="50" t="s">
-        <v>165</v>
-      </c>
-      <c r="F90" s="56" t="s">
+      <c r="D95" s="53"/>
+      <c r="E95" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="F95" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="G90" s="56"/>
-      <c r="H90" s="56" t="s">
+      <c r="G95" s="53"/>
+      <c r="H95" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="I90" s="56"/>
-      <c r="J90" s="2"/>
-    </row>
-    <row r="91" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="56" t="s">
+      <c r="I95" s="54"/>
+      <c r="J95" s="2"/>
+    </row>
+    <row r="96" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B91" s="56"/>
-      <c r="C91" s="64" t="s">
+      <c r="B96" s="53"/>
+      <c r="C96" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="D91" s="64"/>
-      <c r="E91" s="50" t="s">
+      <c r="D96" s="53"/>
+      <c r="E96" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="F96" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="G96" s="55"/>
+      <c r="H96" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="I96" s="55"/>
+      <c r="J96" s="2"/>
+    </row>
+    <row r="97" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="B97" s="53"/>
+      <c r="C97" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D97" s="53"/>
+      <c r="E97" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="F97" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="G97" s="53"/>
+      <c r="H97" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="I97" s="54"/>
+      <c r="J97" s="2"/>
+    </row>
+    <row r="98" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="F91" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="G91" s="56"/>
-      <c r="H91" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="I91" s="56"/>
-      <c r="J91" s="2"/>
-    </row>
-    <row r="92" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="B92" s="56"/>
-      <c r="C92" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="D92" s="56"/>
-      <c r="E92" s="50" t="s">
+      <c r="B98" s="53"/>
+      <c r="C98" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="F92" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="G92" s="56"/>
-      <c r="H92" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="I92" s="56"/>
-      <c r="J92" s="2"/>
-    </row>
-    <row r="93" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="B93" s="56"/>
-      <c r="C93" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="D93" s="56"/>
-      <c r="E93" s="50" t="s">
+      <c r="D98" s="53"/>
+      <c r="E98" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="F98" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="F93" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="G93" s="56"/>
-      <c r="H93" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="I93" s="56"/>
-      <c r="J93" s="2"/>
-    </row>
-    <row r="94" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="B94" s="56"/>
-      <c r="C94" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="D94" s="56"/>
-      <c r="E94" s="50" t="s">
-        <v>170</v>
-      </c>
-      <c r="F94" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="G94" s="56"/>
-      <c r="H94" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="I94" s="56"/>
-      <c r="J94" s="2"/>
-    </row>
-    <row r="95" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="B95" s="56"/>
-      <c r="C95" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="D95" s="56"/>
-      <c r="E95" s="50" t="s">
-        <v>175</v>
-      </c>
-      <c r="F95" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="G95" s="56"/>
-      <c r="H95" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="I95" s="68"/>
-      <c r="J95" s="2"/>
-    </row>
-    <row r="96" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="B96" s="56"/>
-      <c r="C96" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="D96" s="56"/>
-      <c r="E96" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="F96" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="G96" s="64"/>
-      <c r="H96" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="I96" s="64"/>
-      <c r="J96" s="2"/>
-    </row>
-    <row r="97" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="B97" s="56"/>
-      <c r="C97" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="D97" s="56"/>
-      <c r="E97" s="50" t="s">
-        <v>177</v>
-      </c>
-      <c r="F97" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="G97" s="56"/>
-      <c r="H97" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="I97" s="68"/>
-      <c r="J97" s="2"/>
-    </row>
-    <row r="98" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="56" t="s">
-        <v>171</v>
-      </c>
-      <c r="B98" s="56"/>
-      <c r="C98" s="56" t="s">
-        <v>172</v>
-      </c>
-      <c r="D98" s="56"/>
-      <c r="E98" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="F98" s="56" t="s">
-        <v>173</v>
-      </c>
-      <c r="G98" s="56"/>
-      <c r="H98" s="68" t="s">
-        <v>174</v>
-      </c>
-      <c r="I98" s="68"/>
+      <c r="G98" s="53"/>
+      <c r="H98" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="I98" s="54"/>
       <c r="J98" s="2"/>
     </row>
     <row r="99" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3357,17 +3337,17 @@
       <c r="J99" s="2"/>
     </row>
     <row r="100" spans="1:10" s="20" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="65" t="s">
-        <v>97</v>
-      </c>
-      <c r="B100" s="65"/>
-      <c r="C100" s="65"/>
-      <c r="D100" s="65"/>
-      <c r="E100" s="65"/>
-      <c r="F100" s="65"/>
-      <c r="G100" s="65"/>
-      <c r="H100" s="65"/>
-      <c r="I100" s="65"/>
+      <c r="A100" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="B100" s="76"/>
+      <c r="C100" s="76"/>
+      <c r="D100" s="76"/>
+      <c r="E100" s="76"/>
+      <c r="F100" s="76"/>
+      <c r="G100" s="76"/>
+      <c r="H100" s="76"/>
+      <c r="I100" s="76"/>
       <c r="J100" s="2"/>
     </row>
     <row r="101" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3383,17 +3363,17 @@
       <c r="J101" s="2"/>
     </row>
     <row r="102" spans="1:10" s="20" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="65" t="s">
-        <v>179</v>
-      </c>
-      <c r="B102" s="65"/>
-      <c r="C102" s="65"/>
-      <c r="D102" s="65"/>
-      <c r="E102" s="65"/>
-      <c r="F102" s="65"/>
-      <c r="G102" s="65"/>
-      <c r="H102" s="65"/>
-      <c r="I102" s="65"/>
+      <c r="A102" s="76" t="s">
+        <v>174</v>
+      </c>
+      <c r="B102" s="76"/>
+      <c r="C102" s="76"/>
+      <c r="D102" s="76"/>
+      <c r="E102" s="76"/>
+      <c r="F102" s="76"/>
+      <c r="G102" s="76"/>
+      <c r="H102" s="76"/>
+      <c r="I102" s="76"/>
       <c r="J102" s="2"/>
     </row>
     <row r="103" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3410,182 +3390,182 @@
     </row>
     <row r="104" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="49" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B104" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="C104" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="D104" s="77" t="s">
+        <v>181</v>
+      </c>
+      <c r="E104" s="78"/>
+      <c r="F104" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="C104" s="22" t="s">
+      <c r="G104" s="78"/>
+      <c r="H104" s="64" t="s">
+        <v>175</v>
+      </c>
+      <c r="I104" s="64"/>
+      <c r="J104" s="2"/>
+    </row>
+    <row r="105" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="87">
+        <v>1</v>
+      </c>
+      <c r="B105" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="C105" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="D105" s="82" t="s">
         <v>183</v>
       </c>
-      <c r="D104" s="66" t="s">
+      <c r="E105" s="83"/>
+      <c r="F105" s="92" t="s">
+        <v>191</v>
+      </c>
+      <c r="G105" s="93"/>
+      <c r="H105" s="64" t="s">
+        <v>176</v>
+      </c>
+      <c r="I105" s="64"/>
+      <c r="J105" s="2"/>
+    </row>
+    <row r="106" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="88"/>
+      <c r="B106" s="85"/>
+      <c r="C106" s="51" t="s">
+        <v>180</v>
+      </c>
+      <c r="D106" s="82" t="s">
+        <v>184</v>
+      </c>
+      <c r="E106" s="83"/>
+      <c r="F106" s="92" t="s">
+        <v>192</v>
+      </c>
+      <c r="G106" s="93"/>
+      <c r="H106" s="64"/>
+      <c r="I106" s="64"/>
+      <c r="J106" s="2"/>
+    </row>
+    <row r="107" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="87">
+        <v>2</v>
+      </c>
+      <c r="B107" s="85"/>
+      <c r="C107" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="D107" s="82" t="s">
+        <v>185</v>
+      </c>
+      <c r="E107" s="83"/>
+      <c r="F107" s="92" t="s">
+        <v>193</v>
+      </c>
+      <c r="G107" s="93"/>
+      <c r="H107" s="64"/>
+      <c r="I107" s="64"/>
+      <c r="J107" s="2"/>
+    </row>
+    <row r="108" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="88"/>
+      <c r="B108" s="85"/>
+      <c r="C108" s="51" t="s">
+        <v>180</v>
+      </c>
+      <c r="D108" s="82" t="s">
         <v>186</v>
       </c>
-      <c r="E104" s="67"/>
-      <c r="F104" s="66" t="s">
+      <c r="E108" s="83"/>
+      <c r="F108" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="G108" s="93"/>
+      <c r="H108" s="64"/>
+      <c r="I108" s="64"/>
+      <c r="J108" s="2"/>
+    </row>
+    <row r="109" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="87">
+        <v>3</v>
+      </c>
+      <c r="B109" s="85"/>
+      <c r="C109" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="D109" s="82" t="s">
         <v>187</v>
       </c>
-      <c r="G104" s="67"/>
-      <c r="H104" s="58" t="s">
+      <c r="E109" s="83"/>
+      <c r="F109" s="92" t="s">
+        <v>195</v>
+      </c>
+      <c r="G109" s="93"/>
+      <c r="H109" s="64"/>
+      <c r="I109" s="64"/>
+      <c r="J109" s="2"/>
+    </row>
+    <row r="110" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="88"/>
+      <c r="B110" s="85"/>
+      <c r="C110" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="I104" s="58"/>
-      <c r="J104" s="2"/>
-    </row>
-    <row r="105" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="72">
-        <v>1</v>
-      </c>
-      <c r="B105" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="C105" s="51" t="s">
-        <v>184</v>
-      </c>
-      <c r="D105" s="52" t="s">
+      <c r="D110" s="82" t="s">
         <v>188</v>
       </c>
-      <c r="E105" s="53"/>
-      <c r="F105" s="54" t="s">
+      <c r="E110" s="83"/>
+      <c r="F110" s="92" t="s">
         <v>196</v>
       </c>
-      <c r="G105" s="55"/>
-      <c r="H105" s="58" t="s">
-        <v>181</v>
-      </c>
-      <c r="I105" s="58"/>
-      <c r="J105" s="2"/>
-    </row>
-    <row r="106" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="73"/>
-      <c r="B106" s="70"/>
-      <c r="C106" s="51" t="s">
-        <v>185</v>
-      </c>
-      <c r="D106" s="52" t="s">
+      <c r="G110" s="93"/>
+      <c r="H110" s="64"/>
+      <c r="I110" s="64"/>
+      <c r="J110" s="2"/>
+    </row>
+    <row r="111" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="87">
+        <v>4</v>
+      </c>
+      <c r="B111" s="85"/>
+      <c r="C111" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="D111" s="82" t="s">
         <v>189</v>
       </c>
-      <c r="E106" s="53"/>
-      <c r="F106" s="54" t="s">
+      <c r="E111" s="83"/>
+      <c r="F111" s="92" t="s">
         <v>197</v>
       </c>
-      <c r="G106" s="55"/>
-      <c r="H106" s="58"/>
-      <c r="I106" s="58"/>
-      <c r="J106" s="2"/>
-    </row>
-    <row r="107" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="72">
-        <v>2</v>
-      </c>
-      <c r="B107" s="70"/>
-      <c r="C107" s="51" t="s">
-        <v>184</v>
-      </c>
-      <c r="D107" s="52" t="s">
+      <c r="G111" s="93"/>
+      <c r="H111" s="64"/>
+      <c r="I111" s="64"/>
+      <c r="J111" s="2"/>
+    </row>
+    <row r="112" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="88"/>
+      <c r="B112" s="86"/>
+      <c r="C112" s="51" t="s">
+        <v>180</v>
+      </c>
+      <c r="D112" s="82" t="s">
         <v>190</v>
       </c>
-      <c r="E107" s="53"/>
-      <c r="F107" s="54" t="s">
+      <c r="E112" s="83"/>
+      <c r="F112" s="92" t="s">
         <v>198</v>
       </c>
-      <c r="G107" s="55"/>
-      <c r="H107" s="58"/>
-      <c r="I107" s="58"/>
-      <c r="J107" s="2"/>
-    </row>
-    <row r="108" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="73"/>
-      <c r="B108" s="70"/>
-      <c r="C108" s="51" t="s">
-        <v>185</v>
-      </c>
-      <c r="D108" s="52" t="s">
-        <v>191</v>
-      </c>
-      <c r="E108" s="53"/>
-      <c r="F108" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="G108" s="55"/>
-      <c r="H108" s="58"/>
-      <c r="I108" s="58"/>
-      <c r="J108" s="2"/>
-    </row>
-    <row r="109" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="72">
-        <v>3</v>
-      </c>
-      <c r="B109" s="70"/>
-      <c r="C109" s="51" t="s">
-        <v>184</v>
-      </c>
-      <c r="D109" s="52" t="s">
-        <v>192</v>
-      </c>
-      <c r="E109" s="53"/>
-      <c r="F109" s="54" t="s">
-        <v>200</v>
-      </c>
-      <c r="G109" s="55"/>
-      <c r="H109" s="58"/>
-      <c r="I109" s="58"/>
-      <c r="J109" s="2"/>
-    </row>
-    <row r="110" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="73"/>
-      <c r="B110" s="70"/>
-      <c r="C110" s="51" t="s">
-        <v>185</v>
-      </c>
-      <c r="D110" s="52" t="s">
-        <v>193</v>
-      </c>
-      <c r="E110" s="53"/>
-      <c r="F110" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="G110" s="55"/>
-      <c r="H110" s="58"/>
-      <c r="I110" s="58"/>
-      <c r="J110" s="2"/>
-    </row>
-    <row r="111" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="72">
-        <v>4</v>
-      </c>
-      <c r="B111" s="70"/>
-      <c r="C111" s="51" t="s">
-        <v>184</v>
-      </c>
-      <c r="D111" s="52" t="s">
-        <v>194</v>
-      </c>
-      <c r="E111" s="53"/>
-      <c r="F111" s="54" t="s">
-        <v>202</v>
-      </c>
-      <c r="G111" s="55"/>
-      <c r="H111" s="58"/>
-      <c r="I111" s="58"/>
-      <c r="J111" s="2"/>
-    </row>
-    <row r="112" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="73"/>
-      <c r="B112" s="71"/>
-      <c r="C112" s="51" t="s">
-        <v>185</v>
-      </c>
-      <c r="D112" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="E112" s="53"/>
-      <c r="F112" s="54" t="s">
-        <v>203</v>
-      </c>
-      <c r="G112" s="55"/>
-      <c r="H112" s="58"/>
-      <c r="I112" s="58"/>
+      <c r="G112" s="93"/>
+      <c r="H112" s="64"/>
+      <c r="I112" s="64"/>
       <c r="J112" s="2"/>
     </row>
     <row r="113" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3602,7 +3582,7 @@
     </row>
     <row r="114" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="16" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B114" s="16"/>
       <c r="C114" s="16"/>
@@ -3628,82 +3608,82 @@
     </row>
     <row r="116" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B116" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="C116" s="58"/>
-      <c r="D116" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="E116" s="58"/>
-      <c r="F116" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="G116" s="58"/>
-      <c r="H116" s="61"/>
-      <c r="I116" s="61"/>
+        <v>71</v>
+      </c>
+      <c r="B116" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C116" s="64"/>
+      <c r="D116" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="E116" s="64"/>
+      <c r="F116" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="G116" s="64"/>
+      <c r="H116" s="75"/>
+      <c r="I116" s="75"/>
       <c r="J116" s="2"/>
     </row>
     <row r="117" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="29">
         <v>1</v>
       </c>
-      <c r="B117" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="C117" s="58"/>
-      <c r="D117" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="E117" s="58"/>
-      <c r="F117" s="56"/>
-      <c r="G117" s="56"/>
-      <c r="H117" s="61"/>
-      <c r="I117" s="61"/>
+      <c r="B117" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="C117" s="64"/>
+      <c r="D117" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117" s="64"/>
+      <c r="F117" s="53"/>
+      <c r="G117" s="53"/>
+      <c r="H117" s="75"/>
+      <c r="I117" s="75"/>
       <c r="J117" s="2"/>
     </row>
     <row r="118" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="29">
         <v>2</v>
       </c>
-      <c r="B118" s="58"/>
-      <c r="C118" s="58"/>
-      <c r="D118" s="58"/>
-      <c r="E118" s="58"/>
-      <c r="F118" s="56"/>
-      <c r="G118" s="56"/>
-      <c r="H118" s="61"/>
-      <c r="I118" s="61"/>
+      <c r="B118" s="64"/>
+      <c r="C118" s="64"/>
+      <c r="D118" s="64"/>
+      <c r="E118" s="64"/>
+      <c r="F118" s="53"/>
+      <c r="G118" s="53"/>
+      <c r="H118" s="75"/>
+      <c r="I118" s="75"/>
       <c r="J118" s="2"/>
     </row>
     <row r="119" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="29">
         <v>3</v>
       </c>
-      <c r="B119" s="58"/>
-      <c r="C119" s="58"/>
-      <c r="D119" s="58"/>
-      <c r="E119" s="58"/>
-      <c r="F119" s="56"/>
-      <c r="G119" s="56"/>
-      <c r="H119" s="61"/>
-      <c r="I119" s="61"/>
+      <c r="B119" s="64"/>
+      <c r="C119" s="64"/>
+      <c r="D119" s="64"/>
+      <c r="E119" s="64"/>
+      <c r="F119" s="53"/>
+      <c r="G119" s="53"/>
+      <c r="H119" s="75"/>
+      <c r="I119" s="75"/>
       <c r="J119" s="2"/>
     </row>
     <row r="120" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="29">
         <v>4</v>
       </c>
-      <c r="B120" s="58"/>
-      <c r="C120" s="58"/>
-      <c r="D120" s="58"/>
-      <c r="E120" s="58"/>
-      <c r="F120" s="56"/>
-      <c r="G120" s="56"/>
-      <c r="H120" s="61"/>
-      <c r="I120" s="61"/>
+      <c r="B120" s="64"/>
+      <c r="C120" s="64"/>
+      <c r="D120" s="64"/>
+      <c r="E120" s="64"/>
+      <c r="F120" s="53"/>
+      <c r="G120" s="53"/>
+      <c r="H120" s="75"/>
+      <c r="I120" s="75"/>
       <c r="J120" s="2"/>
     </row>
     <row r="121" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3719,18 +3699,18 @@
       <c r="J121" s="2"/>
     </row>
     <row r="122" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="B122" s="63"/>
-      <c r="C122" s="63"/>
-      <c r="D122" s="63"/>
-      <c r="E122" s="63"/>
-      <c r="F122" s="63"/>
-      <c r="G122" s="63"/>
-      <c r="H122" s="63"/>
-      <c r="I122" s="63"/>
-      <c r="J122" s="63"/>
+      <c r="A122" s="91" t="s">
+        <v>73</v>
+      </c>
+      <c r="B122" s="91"/>
+      <c r="C122" s="91"/>
+      <c r="D122" s="91"/>
+      <c r="E122" s="91"/>
+      <c r="F122" s="91"/>
+      <c r="G122" s="91"/>
+      <c r="H122" s="91"/>
+      <c r="I122" s="91"/>
+      <c r="J122" s="91"/>
     </row>
     <row r="123" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="27"/>
@@ -3745,18 +3725,18 @@
       <c r="J123" s="2"/>
     </row>
     <row r="124" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="B124" s="63"/>
-      <c r="C124" s="63"/>
-      <c r="D124" s="63"/>
-      <c r="E124" s="63"/>
-      <c r="F124" s="63"/>
-      <c r="G124" s="63"/>
-      <c r="H124" s="63"/>
-      <c r="I124" s="63"/>
-      <c r="J124" s="63"/>
+      <c r="A124" s="91" t="s">
+        <v>94</v>
+      </c>
+      <c r="B124" s="91"/>
+      <c r="C124" s="91"/>
+      <c r="D124" s="91"/>
+      <c r="E124" s="91"/>
+      <c r="F124" s="91"/>
+      <c r="G124" s="91"/>
+      <c r="H124" s="91"/>
+      <c r="I124" s="91"/>
+      <c r="J124" s="91"/>
     </row>
     <row r="125" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="27"/>
@@ -3771,120 +3751,120 @@
       <c r="J125" s="2"/>
     </row>
     <row r="126" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="B126" s="57"/>
-      <c r="C126" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="D126" s="58"/>
-      <c r="E126" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="F126" s="58"/>
-      <c r="G126" s="58" t="s">
-        <v>82</v>
-      </c>
-      <c r="H126" s="58"/>
+      <c r="A126" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B126" s="74"/>
+      <c r="C126" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="D126" s="64"/>
+      <c r="E126" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="F126" s="64"/>
+      <c r="G126" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="H126" s="64"/>
       <c r="I126" s="24"/>
       <c r="J126" s="2"/>
     </row>
     <row r="127" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="B127" s="57"/>
-      <c r="C127" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="D127" s="57"/>
-      <c r="E127" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="F127" s="58"/>
-      <c r="G127" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="H127" s="62"/>
+      <c r="A127" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="B127" s="74"/>
+      <c r="C127" s="74" t="s">
+        <v>81</v>
+      </c>
+      <c r="D127" s="74"/>
+      <c r="E127" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="F127" s="64"/>
+      <c r="G127" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="H127" s="60"/>
       <c r="I127" s="24"/>
       <c r="J127" s="2"/>
     </row>
     <row r="128" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="B128" s="57"/>
-      <c r="C128" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="D128" s="57"/>
-      <c r="E128" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="F128" s="58"/>
-      <c r="G128" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="H128" s="62"/>
+      <c r="A128" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B128" s="74"/>
+      <c r="C128" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="D128" s="74"/>
+      <c r="E128" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="F128" s="64"/>
+      <c r="G128" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="H128" s="60"/>
       <c r="I128" s="24"/>
       <c r="J128" s="2"/>
     </row>
     <row r="129" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="57" t="s">
+      <c r="A129" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="B129" s="74"/>
+      <c r="C129" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="D129" s="74"/>
+      <c r="E129" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="F129" s="64"/>
+      <c r="G129" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="B129" s="57"/>
-      <c r="C129" s="57" t="s">
-        <v>88</v>
-      </c>
-      <c r="D129" s="57"/>
-      <c r="E129" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="F129" s="58"/>
-      <c r="G129" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="H129" s="62"/>
+      <c r="H129" s="60"/>
       <c r="I129" s="24"/>
       <c r="J129" s="2"/>
     </row>
     <row r="130" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="59"/>
-      <c r="B130" s="59"/>
-      <c r="C130" s="60"/>
-      <c r="D130" s="60"/>
-      <c r="E130" s="60"/>
-      <c r="F130" s="60"/>
-      <c r="G130" s="61"/>
-      <c r="H130" s="61"/>
+      <c r="A130" s="89"/>
+      <c r="B130" s="89"/>
+      <c r="C130" s="90"/>
+      <c r="D130" s="90"/>
+      <c r="E130" s="90"/>
+      <c r="F130" s="90"/>
+      <c r="G130" s="75"/>
+      <c r="H130" s="75"/>
       <c r="I130" s="24"/>
       <c r="J130" s="2"/>
     </row>
     <row r="131" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="B131" s="63"/>
-      <c r="C131" s="63"/>
-      <c r="D131" s="63"/>
-      <c r="E131" s="63"/>
-      <c r="F131" s="63"/>
-      <c r="G131" s="63"/>
-      <c r="H131" s="63"/>
-      <c r="I131" s="63"/>
-      <c r="J131" s="63"/>
+      <c r="A131" s="91" t="s">
+        <v>95</v>
+      </c>
+      <c r="B131" s="91"/>
+      <c r="C131" s="91"/>
+      <c r="D131" s="91"/>
+      <c r="E131" s="91"/>
+      <c r="F131" s="91"/>
+      <c r="G131" s="91"/>
+      <c r="H131" s="91"/>
+      <c r="I131" s="91"/>
+      <c r="J131" s="91"/>
     </row>
     <row r="132" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="59"/>
-      <c r="B132" s="59"/>
-      <c r="C132" s="60"/>
-      <c r="D132" s="60"/>
-      <c r="E132" s="60"/>
-      <c r="F132" s="60"/>
-      <c r="G132" s="61"/>
-      <c r="H132" s="61"/>
+      <c r="A132" s="89"/>
+      <c r="B132" s="89"/>
+      <c r="C132" s="90"/>
+      <c r="D132" s="90"/>
+      <c r="E132" s="90"/>
+      <c r="F132" s="90"/>
+      <c r="G132" s="75"/>
+      <c r="H132" s="75"/>
       <c r="I132" s="24"/>
       <c r="J132" s="2"/>
     </row>
@@ -3927,20 +3907,20 @@
       <c r="J135" s="2"/>
     </row>
     <row r="136" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="B136" s="86"/>
+      <c r="A136" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="B136" s="59"/>
       <c r="C136" s="45"/>
       <c r="D136" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="E136" s="84" t="s">
-        <v>124</v>
-      </c>
-      <c r="F136" s="85"/>
+        <v>118</v>
+      </c>
+      <c r="E136" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="F136" s="58"/>
       <c r="G136" s="47" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H136" s="41"/>
       <c r="I136" s="41"/>
@@ -3950,10 +3930,10 @@
     <row r="138" spans="1:10" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="43"/>
       <c r="B138" s="43" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C138" s="44" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D138" s="44"/>
     </row>
@@ -3964,6 +3944,293 @@
     <row r="143" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="311">
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="F108:G108"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="G129:H129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="A131:J131"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="A100:I100"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="H105:I112"/>
+    <mergeCell ref="B105:B112"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="D117:E120"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="A102:I102"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="F118:G118"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="F119:G119"/>
+    <mergeCell ref="H119:I119"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="B117:C120"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="A122:J122"/>
+    <mergeCell ref="A124:J124"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="E126:F126"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="A52:B52"/>
@@ -3988,293 +4255,6 @@
     <mergeCell ref="H60:I60"/>
     <mergeCell ref="F57:G57"/>
     <mergeCell ref="H57:I57"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="G126:H126"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="E127:F127"/>
-    <mergeCell ref="G127:H127"/>
-    <mergeCell ref="F118:G118"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="F119:G119"/>
-    <mergeCell ref="H119:I119"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="A102:I102"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="A100:I100"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="F104:G104"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="H105:I112"/>
-    <mergeCell ref="B105:B112"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="F120:G120"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="E129:F129"/>
-    <mergeCell ref="G129:H129"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="E130:F130"/>
-    <mergeCell ref="G130:H130"/>
-    <mergeCell ref="A131:J131"/>
-    <mergeCell ref="D117:E120"/>
-    <mergeCell ref="B117:C120"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="A122:J122"/>
-    <mergeCell ref="A124:J124"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="F107:G107"/>
-    <mergeCell ref="F108:G108"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="F110:G110"/>
-    <mergeCell ref="F111:G111"/>
-    <mergeCell ref="F112:G112"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.35433070866141736" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.31496062992125984"/>
